--- a/Fine_Generator.xlsx
+++ b/Fine_Generator.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FB53DC6-82B8-44BA-9D95-EB479B813F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0492EFC-D0AE-485C-825A-4216A445867F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Work order tracking form" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -88,9 +86,6 @@
     <t>Dinesh K</t>
   </si>
   <si>
-    <t>RnD, Dataset</t>
-  </si>
-  <si>
     <t>Research over the problem statement, bringing up a uniqueness to our solution, test and train datasets</t>
   </si>
   <si>
@@ -104,6 +99,9 @@
   </si>
   <si>
     <t>Connection of models, and Front end in a efficient manner to acheive better user experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RnD, Preparation of Dataset </t>
   </si>
 </sst>
 </file>
@@ -113,7 +111,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;Complete&quot;;&quot;&quot;;&quot;Incomplete&quot;"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="4" tint="-0.499984740745262"/>
@@ -220,7 +218,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -233,15 +231,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -252,9 +244,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -399,7 +388,7 @@
       <calculatedColumnFormula>IFERROR(
     IF(#REF!=1, "Complete",
         IF(ISBLANK(#REF!), "Assigned",
-            IF(AND(TODAY() &gt; #REF!, #REF! &lt;&gt; 1), "Incomplete", "Complete")
+            IF(AND(TODAY() &gt;#REF!,#REF! &lt;&gt; 1), "Incomplete", "Complete")
         )
     ), "Assigned"
 )</calculatedColumnFormula>
@@ -647,11 +636,11 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="18.25" customWidth="1"/>
@@ -662,9 +651,9 @@
     <col min="7" max="7" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="66.599999999999994" customHeight="1">
+    <row r="1" spans="1:9" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
@@ -675,28 +664,28 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="6"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1">
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="2">
         <v>1</v>
@@ -707,101 +696,101 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1">
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1">
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1">
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1">
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1">
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -812,7 +801,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1">
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -823,7 +812,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1">
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -834,16 +823,13 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1">
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1">
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1">
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="30" customHeight="1">
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E14" s="3"/>
     </row>
   </sheetData>
@@ -894,15 +880,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1202,6 +1179,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1223,15 +1209,44 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B1C0133-ACD3-4D52-BE13-6FA24790F77B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC5F6168-E33D-4B14-A988-B5FADAF66D00}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC5F6168-E33D-4B14-A988-B5FADAF66D00}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B1C0133-ACD3-4D52-BE13-6FA24790F77B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88AC85A2-58A2-4AB8-8DCF-F8607EC22118}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88AC85A2-58A2-4AB8-8DCF-F8607EC22118}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
